--- a/ApolloQA/Data/RatingManual/GA/OR00020.MinimumCostofHireFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00020.MinimumCostofHireFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00020.MinimumCostofHireFactors" sheetId="1" r:id="R3eb7f520d6c548a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00020.MinimumCostofHireFactors" sheetId="1" r:id="Ra0a201a0045e4502"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,258 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Minimum Cost Of Hire</x:v>
+        <x:v>Combined Single Limit</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
         <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8786</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$15,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9143</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9571</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1164</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$35,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1409</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1716</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2084</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2451</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$55,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2862</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3272</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$65,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3682</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$70,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4093</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$75,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4503</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4856</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$85,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5209</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$90,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5562</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5915</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6267</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$125,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7623</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$150,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.8747</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$200,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0446</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1829</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2971</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$350,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.4058</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$400,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5162</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.6695</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$600,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7344</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$750,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8737</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.0483</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
